--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna5</t>
+  </si>
+  <si>
+    <t>Epha7</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna5</t>
-  </si>
-  <si>
-    <t>Epha7</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H2">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N2">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O2">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P2">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q2">
-        <v>0.07326568183333333</v>
+        <v>0.1642200698844445</v>
       </c>
       <c r="R2">
-        <v>0.6593911364999999</v>
+        <v>1.47798062896</v>
       </c>
       <c r="S2">
-        <v>0.01188263375659482</v>
+        <v>0.01659595231804808</v>
       </c>
       <c r="T2">
-        <v>0.01188263375659481</v>
+        <v>0.01659595231804808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H3">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,25 +617,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N3">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O3">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P3">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q3">
-        <v>0.06418661639333333</v>
+        <v>0.8065154722782224</v>
       </c>
       <c r="R3">
-        <v>0.5776795475399999</v>
+        <v>7.258639250504001</v>
       </c>
       <c r="S3">
-        <v>0.01041014067694133</v>
+        <v>0.08150582526920039</v>
       </c>
       <c r="T3">
-        <v>0.01041014067694133</v>
+        <v>0.08150582526920039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H4">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I4">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J4">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N4">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O4">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P4">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q4">
-        <v>0.2557581753183333</v>
+        <v>7.074541435702667</v>
       </c>
       <c r="R4">
-        <v>2.301823577865</v>
+        <v>63.670872921324</v>
       </c>
       <c r="S4">
-        <v>0.04148027632467957</v>
+        <v>0.7149476456902804</v>
       </c>
       <c r="T4">
-        <v>0.04148027632467957</v>
+        <v>0.7149476456902805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H5">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I5">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J5">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3173666666666666</v>
+        <v>0.05661333333333334</v>
       </c>
       <c r="N5">
-        <v>0.9520999999999999</v>
+        <v>0.16984</v>
       </c>
       <c r="O5">
-        <v>0.1863268828340317</v>
+        <v>0.0204119846136133</v>
       </c>
       <c r="P5">
-        <v>0.1863268828340316</v>
+        <v>0.02041198461361329</v>
       </c>
       <c r="Q5">
-        <v>0.9205954341555554</v>
+        <v>0.03776035736000001</v>
       </c>
       <c r="R5">
-        <v>8.285358907399999</v>
+        <v>0.3398432162400001</v>
       </c>
       <c r="S5">
-        <v>0.1493072623953519</v>
+        <v>0.003816032295565212</v>
       </c>
       <c r="T5">
-        <v>0.1493072623953519</v>
+        <v>0.003816032295565211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H6">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I6">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J6">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,25 +803,25 @@
         <v>0.2780386666666667</v>
       </c>
       <c r="N6">
-        <v>0.834116</v>
+        <v>0.8341160000000001</v>
       </c>
       <c r="O6">
-        <v>0.1632373009158609</v>
+        <v>0.100247073468963</v>
       </c>
       <c r="P6">
-        <v>0.1632373009158609</v>
+        <v>0.1002470734689629</v>
       </c>
       <c r="Q6">
-        <v>0.8065154722782222</v>
+        <v>0.1854481761640001</v>
       </c>
       <c r="R6">
-        <v>7.258639250504</v>
+        <v>1.669033585476</v>
       </c>
       <c r="S6">
-        <v>0.1308051428213017</v>
+        <v>0.01874124819976256</v>
       </c>
       <c r="T6">
-        <v>0.1308051428213017</v>
+        <v>0.01874124819976255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H7">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I7">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J7">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.107873666666667</v>
+        <v>2.438882</v>
       </c>
       <c r="N7">
-        <v>3.323621</v>
+        <v>7.316646</v>
       </c>
       <c r="O7">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="P7">
-        <v>0.6504358162501074</v>
+        <v>0.8793409419174237</v>
       </c>
       <c r="Q7">
-        <v>3.213643858274889</v>
+        <v>1.626702588534</v>
       </c>
       <c r="R7">
-        <v>28.922794724474</v>
+        <v>14.640323296806</v>
       </c>
       <c r="S7">
-        <v>0.5212065463183508</v>
+        <v>0.1643932962271433</v>
       </c>
       <c r="T7">
-        <v>0.5212065463183509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.465079</v>
-      </c>
-      <c r="I8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.3173666666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.9520999999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.1863268828340317</v>
-      </c>
-      <c r="P8">
-        <v>0.1863268828340316</v>
-      </c>
-      <c r="Q8">
-        <v>0.1549890795444445</v>
-      </c>
-      <c r="R8">
-        <v>1.3949017159</v>
-      </c>
-      <c r="S8">
-        <v>0.02513698668208498</v>
-      </c>
-      <c r="T8">
-        <v>0.02513698668208497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.465079</v>
-      </c>
-      <c r="I9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.2780386666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.834116</v>
-      </c>
-      <c r="O9">
-        <v>0.1632373009158609</v>
-      </c>
-      <c r="P9">
-        <v>0.1632373009158609</v>
-      </c>
-      <c r="Q9">
-        <v>0.1357828705737778</v>
-      </c>
-      <c r="R9">
-        <v>1.222045835164</v>
-      </c>
-      <c r="S9">
-        <v>0.02202201741761789</v>
-      </c>
-      <c r="T9">
-        <v>0.02202201741761789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.465079</v>
-      </c>
-      <c r="I10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.107873666666667</v>
-      </c>
-      <c r="N10">
-        <v>3.323621</v>
-      </c>
-      <c r="O10">
-        <v>0.6504358162501074</v>
-      </c>
-      <c r="P10">
-        <v>0.6504358162501074</v>
-      </c>
-      <c r="Q10">
-        <v>0.5410408145621112</v>
-      </c>
-      <c r="R10">
-        <v>4.869367331059001</v>
-      </c>
-      <c r="S10">
-        <v>0.08774899360707694</v>
-      </c>
-      <c r="T10">
-        <v>0.08774899360707694</v>
+        <v>0.1643932962271433</v>
       </c>
     </row>
   </sheetData>
